--- a/data/trans_bre/Predimed_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R3-Provincia-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.448409142919961</v>
+        <v>-4.694565152521288</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.3644442598322288</v>
+        <v>-0.3620871615568237</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.731513253464308</v>
+        <v>3.605243872101323</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.470830623821786</v>
+        <v>0.454695639408481</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.006673986212944</v>
+        <v>1.006673986212943</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1500277126467007</v>
+        <v>0.1500277126467005</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.65924955739154</v>
+        <v>-2.797239646271327</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2917232627093395</v>
+        <v>-0.304689882430065</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.230736349521016</v>
+        <v>4.153931775764757</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9367816672534433</v>
+        <v>0.8568418121467669</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.024105099533247</v>
+        <v>2.024105099533252</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.07290207221326506</v>
+        <v>0.07290207221326525</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.713765471926652</v>
+        <v>-4.130431217471524</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1483429132853146</v>
+        <v>-0.1311760124340017</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.906646924032668</v>
+        <v>8.657992644507555</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.3221859801503495</v>
+        <v>0.3557746045551349</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-0.8776743802629439</v>
+        <v>-0.8776743802629494</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.02166100468933177</v>
+        <v>-0.02166100468933191</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.516353442947715</v>
+        <v>-9.460957264996111</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2014568620508557</v>
+        <v>-0.2044646648923767</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.869320969429825</v>
+        <v>8.243885173287147</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2385853340098791</v>
+        <v>0.2425421318373852</v>
       </c>
     </row>
     <row r="16">
@@ -739,7 +739,7 @@
         <v>10.94939825826899</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.5374395401602848</v>
+        <v>0.5374395401602846</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.068668945638737</v>
+        <v>4.282603040963675</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.1694264275243962</v>
+        <v>0.1803477282750311</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.14877145002348</v>
+        <v>17.36009432993018</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.085727730963628</v>
+        <v>1.075728446760719</v>
       </c>
     </row>
     <row r="19">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-10.10093375880104</v>
+        <v>-10.09996948557817</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5607191996710464</v>
+        <v>-0.5685764130122638</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.8516049201632157</v>
+        <v>-0.6670196882222682</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.07250904067650218</v>
+        <v>-0.03651973838470455</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-0.5655338633618889</v>
+        <v>-0.5655338633618945</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>-0.0182776509610002</v>
+        <v>-0.01827765096100038</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.38027197092674</v>
+        <v>-6.123573913310838</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.164245723156705</v>
+        <v>-0.1782023549731121</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.818245697469138</v>
+        <v>3.881951076777696</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.1717366950270614</v>
+        <v>0.1377929296074394</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>1.98053098393124</v>
+        <v>1.980530983931242</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.580305405683639</v>
+        <v>0.5803054056836394</v>
       </c>
     </row>
     <row r="26">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.1329037022182202</v>
+        <v>-0.05994818187607824</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05974983024932479</v>
+        <v>-0.02706091479901266</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.881892306338369</v>
+        <v>3.866681192799103</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.569012797099</v>
+        <v>1.594383411145175</v>
       </c>
     </row>
     <row r="28">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>1.293834256495024</v>
+        <v>1.293834256495027</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.07342780324593806</v>
+        <v>0.07342780324593824</v>
       </c>
     </row>
     <row r="29">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6253634411339025</v>
+        <v>-0.4114633293175156</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.03321578820165743</v>
+        <v>-0.02282608537472367</v>
       </c>
     </row>
     <row r="30">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.217176485056867</v>
+        <v>3.303756664424164</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.1944784918620848</v>
+        <v>0.1939441323531935</v>
       </c>
     </row>
     <row r="31">
